--- a/progress.xlsx
+++ b/progress.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:U1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,33 +427,98 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>2023-12-09 03:10:45</t>
-        </is>
-      </c>
-      <c r="C1" t="n">
-        <v>1</v>
+          <t>2023-12-15 23:54:46</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>29/125</t>
+        </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
           <t>Failed</t>
         </is>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2023-12-09 03:17:50</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Failed</t>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>3/125</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr"/>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>6/125</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>4/125</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>11/125</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>14/125</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>16/125</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>11/125</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>10/125</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>11/125</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>8/125</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>7/125</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>9/125</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>5/125</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>2/125</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>3/125</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>5/125</t>
         </is>
       </c>
     </row>
